--- a/Estudio-FG/pcapsConAlertasIPS/ataques_sin_detecciones_FG_ConAlertasIPS.xlsx
+++ b/Estudio-FG/pcapsConAlertasIPS/ataques_sin_detecciones_FG_ConAlertasIPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/PCAPS/pcapsConAlertasIPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7DA2C77-D32F-479B-A2E7-5D15ABE2975D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31282665-DE86-49E7-A9F3-DDBDD0B2EA81}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2800" windowWidth="25860" windowHeight="19630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1870" yWindow="980" windowWidth="36600" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>T1665-Hide_Infrastructure_[5].pcapng</t>
+  </si>
+  <si>
+    <t>Se generan alertas pero no cubren el ataque entero</t>
+  </si>
+  <si>
+    <t>Las alertas no cubren el ataque entero</t>
   </si>
 </sst>
 </file>
@@ -219,6 +225,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,6 +509,7 @@
     <col min="5" max="5" width="24.7265625" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" customWidth="1"/>
     <col min="7" max="7" width="28.36328125" customWidth="1"/>
+    <col min="10" max="10" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -605,6 +616,9 @@
       <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -672,6 +686,9 @@
       <c r="K5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -774,6 +791,9 @@
       <c r="K8" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -952,6 +972,9 @@
       <c r="K13" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -984,8 +1007,11 @@
       <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1051,8 +1077,11 @@
       <c r="K16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1083,8 +1112,11 @@
       <c r="K17" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1115,8 +1147,11 @@
       <c r="K18" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
